--- a/опд.XLSX
+++ b/опд.XLSX
@@ -1,25 +1,146 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speci\Desktop\ОПД\Лаб ОПД 2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C75BC6A-489F-4692-B8A4-AE5AF2CF2809}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+  <si>
+    <t>Адрес</t>
+  </si>
+  <si>
+    <t>Код команды</t>
+  </si>
+  <si>
+    <t>Мнемоника</t>
+  </si>
+  <si>
+    <t>Пояснения</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>CLA</t>
+  </si>
+  <si>
+    <t>А065</t>
+  </si>
+  <si>
+    <t>E059</t>
+  </si>
+  <si>
+    <t>405B</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>0200</t>
+  </si>
+  <si>
+    <t>E05A</t>
+  </si>
+  <si>
+    <t>4059</t>
+  </si>
+  <si>
+    <t>OR 064</t>
+  </si>
+  <si>
+    <t>HLT</t>
+  </si>
+  <si>
+    <t>LD 065</t>
+  </si>
+  <si>
+    <t>(065) -&gt; AC</t>
+  </si>
+  <si>
+    <t>ST 059</t>
+  </si>
+  <si>
+    <t>0 -&gt; AC</t>
+  </si>
+  <si>
+    <t>ADD 05B</t>
+  </si>
+  <si>
+    <t>ADD 059</t>
+  </si>
+  <si>
+    <t>ST 05A</t>
+  </si>
+  <si>
+    <t>переменная</t>
+  </si>
+  <si>
+    <t>AC -&gt; (059)</t>
+  </si>
+  <si>
+    <t>^(^(064) &amp; ^(АС)) -&gt; AC</t>
+  </si>
+  <si>
+    <t>(05B) + AC -&gt; AC</t>
+  </si>
+  <si>
+    <t>(059) + AC -&gt; AC</t>
+  </si>
+  <si>
+    <t>AC -&gt; (05A)</t>
+  </si>
+  <si>
+    <t>отключение ТГ, переход в пультовый режим</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0_ ;\-0\ "/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -37,7 +158,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -45,15 +166,189 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +625,316 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <f>89</f>
+        <v>89</v>
+      </c>
+      <c r="C2" s="8" t="str">
+        <f>DEC2HEX(A2)</f>
+        <v>59</v>
+      </c>
+      <c r="D2" s="9">
+        <v>3064</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <f>A2+1</f>
+        <v>90</v>
+      </c>
+      <c r="C3" s="8" t="str">
+        <f>DEC2HEX(A3)</f>
+        <v>5A</v>
+      </c>
+      <c r="D3" s="9">
+        <v>3064</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <f>A3+1</f>
+        <v>91</v>
+      </c>
+      <c r="C4" s="8" t="str">
+        <f>DEC2HEX(A4)</f>
+        <v>5B</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <f>A4+1</f>
+        <v>92</v>
+      </c>
+      <c r="C5" s="8" t="str">
+        <f>DEC2HEX(A5)</f>
+        <v>5C</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <f>A5+1</f>
+        <v>93</v>
+      </c>
+      <c r="C6" s="8" t="str">
+        <f>DEC2HEX(A6)</f>
+        <v>5D</v>
+      </c>
+      <c r="D6" s="9">
+        <v>3064</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <f>A6+1</f>
+        <v>94</v>
+      </c>
+      <c r="C7" s="8" t="str">
+        <f>DEC2HEX(A7)</f>
+        <v>5E</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <f>A7+1</f>
+        <v>95</v>
+      </c>
+      <c r="C8" s="8" t="str">
+        <f>DEC2HEX(A8)</f>
+        <v>5F</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <f>A8+1</f>
+        <v>96</v>
+      </c>
+      <c r="C9" s="8" t="str">
+        <f>DEC2HEX(A9)</f>
+        <v>60</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <f>A9+1</f>
+        <v>97</v>
+      </c>
+      <c r="C10" s="8" t="str">
+        <f>DEC2HEX(A10)</f>
+        <v>61</v>
+      </c>
+      <c r="D10" s="9">
+        <v>4059</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <f>A10+1</f>
+        <v>98</v>
+      </c>
+      <c r="C11" s="8" t="str">
+        <f>DEC2HEX(A11)</f>
+        <v>62</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <f>A11+1</f>
+        <v>99</v>
+      </c>
+      <c r="C12" s="8" t="str">
+        <f>DEC2HEX(A12)</f>
+        <v>63</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <f>A12+1</f>
+        <v>100</v>
+      </c>
+      <c r="C13" s="8" t="str">
+        <f>DEC2HEX(A13)</f>
+        <v>64</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <f>A13+1</f>
+        <v>101</v>
+      </c>
+      <c r="C14" s="12" t="str">
+        <f>DEC2HEX(A14)</f>
+        <v>65</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/опд.XLSX
+++ b/опд.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speci\Desktop\ОПД\Лаб ОПД 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C75BC6A-489F-4692-B8A4-AE5AF2CF2809}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2751410-6443-469E-AB0A-CB0BB9487A75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>Адрес</t>
   </si>
@@ -131,7 +131,49 @@
     <t>AC -&gt; (05A)</t>
   </si>
   <si>
-    <t>отключение ТГ, переход в пультовый режим</t>
+    <t xml:space="preserve">отключение ТГ, </t>
+  </si>
+  <si>
+    <t>Выполняемая команда</t>
+  </si>
+  <si>
+    <t>Код</t>
+  </si>
+  <si>
+    <t>Содержимое регистров процессора после выполнения команды</t>
+  </si>
+  <si>
+    <t>Ячейка, содержимое которой изменилось после выполнения команды</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>NZVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Адрес </t>
+  </si>
+  <si>
+    <t>Новый код</t>
   </si>
 </sst>
 </file>
@@ -305,18 +347,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -346,6 +382,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -626,287 +671,347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" customWidth="1"/>
+    <col min="11" max="13" width="6.77734375" customWidth="1"/>
+    <col min="14" max="14" width="6.5546875" customWidth="1"/>
+    <col min="15" max="16" width="6.6640625" customWidth="1"/>
+    <col min="17" max="17" width="6.88671875" customWidth="1"/>
+    <col min="18" max="18" width="13.77734375" customWidth="1"/>
+    <col min="19" max="19" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:20" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="15"/>
+      <c r="T1" s="14"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="H2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <f>89</f>
         <v>89</v>
       </c>
-      <c r="C2" s="8" t="str">
-        <f>DEC2HEX(A2)</f>
+      <c r="C3" s="6" t="str">
+        <f>DEC2HEX(A3)</f>
         <v>59</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D3" s="7">
         <v>3064</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <f>A2+1</f>
-        <v>90</v>
-      </c>
-      <c r="C3" s="8" t="str">
-        <f>DEC2HEX(A3)</f>
-        <v>5A</v>
-      </c>
-      <c r="D3" s="9">
-        <v>3064</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f>A3+1</f>
-        <v>91</v>
-      </c>
-      <c r="C4" s="8" t="str">
+        <v>90</v>
+      </c>
+      <c r="C4" s="6" t="str">
         <f>DEC2HEX(A4)</f>
-        <v>5B</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="10" t="s">
+        <v>5A</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3064</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f>A4+1</f>
-        <v>92</v>
-      </c>
-      <c r="C5" s="8" t="str">
+        <v>91</v>
+      </c>
+      <c r="C5" s="6" t="str">
         <f>DEC2HEX(A5)</f>
-        <v>5C</v>
+        <v>5B</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f>A5+1</f>
-        <v>93</v>
-      </c>
-      <c r="C6" s="8" t="str">
+        <v>92</v>
+      </c>
+      <c r="C6" s="6" t="str">
         <f>DEC2HEX(A6)</f>
-        <v>5D</v>
-      </c>
-      <c r="D6" s="9">
-        <v>3064</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5C</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f>A6+1</f>
-        <v>94</v>
-      </c>
-      <c r="C7" s="8" t="str">
+        <v>93</v>
+      </c>
+      <c r="C7" s="6" t="str">
         <f>DEC2HEX(A7)</f>
-        <v>5E</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5D</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3064</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f>A7+1</f>
-        <v>95</v>
-      </c>
-      <c r="C8" s="8" t="str">
+        <v>94</v>
+      </c>
+      <c r="C8" s="6" t="str">
         <f>DEC2HEX(A8)</f>
-        <v>5F</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5E</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f>A8+1</f>
-        <v>96</v>
-      </c>
-      <c r="C9" s="8" t="str">
+        <v>95</v>
+      </c>
+      <c r="C9" s="6" t="str">
         <f>DEC2HEX(A9)</f>
-        <v>60</v>
+        <v>5F</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f>A9+1</f>
-        <v>97</v>
-      </c>
-      <c r="C10" s="8" t="str">
+        <v>96</v>
+      </c>
+      <c r="C10" s="6" t="str">
         <f>DEC2HEX(A10)</f>
-        <v>61</v>
-      </c>
-      <c r="D10" s="9">
-        <v>4059</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f>A10+1</f>
-        <v>98</v>
-      </c>
-      <c r="C11" s="8" t="str">
+        <v>97</v>
+      </c>
+      <c r="C11" s="6" t="str">
         <f>DEC2HEX(A11)</f>
-        <v>62</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="D11" s="7">
+        <v>4059</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f>A11+1</f>
-        <v>99</v>
-      </c>
-      <c r="C12" s="8" t="str">
+        <v>98</v>
+      </c>
+      <c r="C12" s="6" t="str">
         <f>DEC2HEX(A12)</f>
-        <v>63</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f>A12+1</f>
-        <v>100</v>
-      </c>
-      <c r="C13" s="8" t="str">
+        <v>99</v>
+      </c>
+      <c r="C13" s="6" t="str">
         <f>DEC2HEX(A13)</f>
-        <v>64</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f>A13+1</f>
+        <v>100</v>
+      </c>
+      <c r="C14" s="6" t="str">
+        <f>DEC2HEX(A14)</f>
+        <v>64</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <f>A14+1</f>
         <v>101</v>
       </c>
-      <c r="C14" s="12" t="str">
-        <f>DEC2HEX(A14)</f>
+      <c r="C15" s="10" t="str">
+        <f>DEC2HEX(A15)</f>
         <v>65</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E15" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F15" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -934,6 +1039,11 @@
       <c r="A24" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
